--- a/ProjectTest65/Excel/Remove Income and Expense ยังไม่ได้ทำ.xlsx
+++ b/ProjectTest65/Excel/Remove Income and Expense ยังไม่ได้ทำ.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\Project\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\MiniProjectTest\ProjectTest65\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{628ECA33-2128-48AB-AD79-23E4D0956E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1879C465-A28B-4E9B-90A1-844BDFF247C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10212" yWindow="4800" windowWidth="10944" windowHeight="9672" xr2:uid="{0FB46A71-FDDD-4DAE-8F8F-B5D67459FF49}"/>
+    <workbookView xWindow="3084" yWindow="4500" windowWidth="17280" windowHeight="8112" xr2:uid="{0FB46A71-FDDD-4DAE-8F8F-B5D67459FF49}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="RemoveInAndEx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Execute</t>
   </si>
@@ -44,13 +44,43 @@
     <t>Test Case</t>
   </si>
   <si>
-    <t>Class Converage ID</t>
-  </si>
-  <si>
     <t>Result</t>
   </si>
   <si>
     <t>Revise</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>ActualResult</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>กดลบ</t>
+  </si>
+  <si>
+    <t>ใช่</t>
+  </si>
+  <si>
+    <t>ไม่ใช่</t>
+  </si>
+  <si>
+    <t>ต้องการลบใช่หรือไม่ ?</t>
+  </si>
+  <si>
+    <t>ข้อมูลของวันที่ทำรายการนั้นจะหายไป</t>
+  </si>
+  <si>
+    <t>ข้อมูลขจะต้องอยู่ที่เดิม</t>
   </si>
 </sst>
 </file>
@@ -90,10 +120,10 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -429,36 +459,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50C5CE5C-C0B4-4409-B820-E464CFF64852}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H6:H7"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="10.59765625" customWidth="1"/>
+    <col min="1" max="2" width="8.796875" style="2"/>
+    <col min="4" max="4" width="26.09765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>
 </file>